--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_12.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_12.xlsx
@@ -508,197 +508,197 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_6</t>
+          <t>model_1_12_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9987735054084758</v>
+        <v>0.9468240089007112</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8218133187884887</v>
+        <v>0.7181179885460055</v>
       </c>
       <c r="D2" t="n">
-        <v>0.802302235012576</v>
+        <v>0.7757706533489708</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9917760397183302</v>
+        <v>0.9383189330261432</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005105316480740523</v>
+        <v>0.1707102030140565</v>
       </c>
       <c r="G2" t="n">
-        <v>1.1915351577356</v>
+        <v>1.884946308540177</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7071534421849688</v>
+        <v>0.8020553714061895</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01459913155289407</v>
+        <v>0.2430677724650731</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1706961402294338</v>
+        <v>1.168042209383002</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07145149740026813</v>
+        <v>0.4131709125943602</v>
       </c>
       <c r="L2" t="n">
-        <v>1.078495653857551</v>
+        <v>0.9275901397796918</v>
       </c>
       <c r="M2" t="n">
-        <v>0.07257678705902908</v>
+        <v>0.4196779414483351</v>
       </c>
       <c r="N2" t="n">
-        <v>140.5549456700372</v>
+        <v>37.5355757587133</v>
       </c>
       <c r="O2" t="n">
-        <v>281.8901182132536</v>
+        <v>74.50015934693911</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_8</t>
+          <t>model_1_12_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9985777507879489</v>
+        <v>0.9467800900198555</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8217473998293355</v>
+        <v>0.7179248765216639</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8009284796257118</v>
+        <v>0.7759087960308478</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9887900587611473</v>
+        <v>0.9377598355438521</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005920150314712391</v>
+        <v>0.1708511952346437</v>
       </c>
       <c r="G3" t="n">
-        <v>1.191975958118986</v>
+        <v>1.886237649536148</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7120672855488682</v>
+        <v>0.8015612430430883</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01989982943023078</v>
+        <v>0.2452710187167781</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1752843859035517</v>
+        <v>1.174133416566843</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07694251305170888</v>
+        <v>0.4133414995311306</v>
       </c>
       <c r="L3" t="n">
-        <v>1.091023949571273</v>
+        <v>0.9275303353461862</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07815428071797814</v>
+        <v>0.4198512149588353</v>
       </c>
       <c r="N3" t="n">
-        <v>140.2587868788197</v>
+        <v>37.5339246092647</v>
       </c>
       <c r="O3" t="n">
-        <v>281.5939594220361</v>
+        <v>74.49850819749052</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_5</t>
+          <t>model_1_12_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9987915241309029</v>
+        <v>0.9467331308219323</v>
       </c>
       <c r="C4" t="n">
-        <v>0.821687366595974</v>
+        <v>0.7177325586170638</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8024433992930864</v>
+        <v>0.7760448176896608</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9921169188918231</v>
+        <v>0.9371945822671698</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005030313067595049</v>
+        <v>0.171001947746165</v>
       </c>
       <c r="G4" t="n">
-        <v>1.192377400626903</v>
+        <v>1.887523680249753</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7066485057387586</v>
+        <v>0.8010747014565029</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01399400461562553</v>
+        <v>0.2474985232263873</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1697552017362236</v>
+        <v>1.180215667804672</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07092469998241127</v>
+        <v>0.4135238176286403</v>
       </c>
       <c r="L4" t="n">
-        <v>1.077342455622215</v>
+        <v>0.9274663909064611</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0720416931084452</v>
+        <v>0.4200364043841295</v>
       </c>
       <c r="N4" t="n">
-        <v>140.5845461134576</v>
+        <v>37.53216066443179</v>
       </c>
       <c r="O4" t="n">
-        <v>281.919718656674</v>
+        <v>74.49674425265762</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_7</t>
+          <t>model_1_12_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9985852930647573</v>
+        <v>0.946683173891543</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8216601388211209</v>
+        <v>0.7175411458604488</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8010213959842348</v>
+        <v>0.7761789736589222</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9889857061172224</v>
+        <v>0.9366232281936115</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00588875538614209</v>
+        <v>0.1711623238398197</v>
       </c>
       <c r="G5" t="n">
-        <v>1.192559472882718</v>
+        <v>1.888803658234611</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7117349291220313</v>
+        <v>0.8005948333332653</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01955251726048693</v>
+        <v>0.2497500692641286</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1744268065539537</v>
+        <v>1.18628431746465</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07673822636823248</v>
+        <v>0.4137176861578674</v>
       </c>
       <c r="L5" t="n">
-        <v>1.090541243855533</v>
+        <v>0.9273983644480586</v>
       </c>
       <c r="M5" t="n">
-        <v>0.07794677672344875</v>
+        <v>0.4202333261488945</v>
       </c>
       <c r="N5" t="n">
-        <v>140.2694212266019</v>
+        <v>37.53028582104554</v>
       </c>
       <c r="O5" t="n">
-        <v>281.6045937698183</v>
+        <v>74.49486940927136</v>
       </c>
     </row>
     <row r="6">
@@ -708,291 +708,291 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9988417679424033</v>
+        <v>0.946630262523992</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8216380551850904</v>
+        <v>0.7173504896010952</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8028118977784884</v>
+        <v>0.7763113070176784</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9929290778116773</v>
+        <v>0.9360457573398695</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004821171860873706</v>
+        <v>0.1713321845252469</v>
       </c>
       <c r="G6" t="n">
-        <v>1.192707146258539</v>
+        <v>1.8900785775188</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7053304080232452</v>
+        <v>0.8001214845821232</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01255226432181173</v>
+        <v>0.2520257198157329</v>
       </c>
       <c r="J6" t="n">
-        <v>0.168415447170609</v>
+        <v>1.192333237335569</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06943465893106775</v>
+        <v>0.4139229209952583</v>
       </c>
       <c r="L6" t="n">
-        <v>1.074126851686188</v>
+        <v>0.9273263149262869</v>
       </c>
       <c r="M6" t="n">
-        <v>0.07052818540003761</v>
+        <v>0.4204417932298148</v>
       </c>
       <c r="N6" t="n">
-        <v>140.6694765116141</v>
+        <v>37.52830201464625</v>
       </c>
       <c r="O6" t="n">
-        <v>282.0046490548305</v>
+        <v>74.49288560287206</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_3</t>
+          <t>model_1_12_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9988977556634731</v>
+        <v>0.9465744555716034</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8215557940628914</v>
+        <v>0.7171608337484892</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8033125683609388</v>
+        <v>0.7764418313811714</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9936920807745511</v>
+        <v>0.9354625292966149</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004588121477225861</v>
+        <v>0.1715113408695841</v>
       </c>
       <c r="G7" t="n">
-        <v>1.193257226761462</v>
+        <v>1.891346807078462</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7035395383803686</v>
+        <v>0.7996546065021461</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01119778542737092</v>
+        <v>0.2543240578352929</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1671359809942517</v>
+        <v>1.198361111621612</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06773567359394797</v>
+        <v>0.4141392771394474</v>
       </c>
       <c r="L7" t="n">
-        <v>1.070543637537725</v>
+        <v>0.9272503224804811</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06880244274222044</v>
+        <v>0.4206615567669981</v>
       </c>
       <c r="N7" t="n">
-        <v>140.7685692058042</v>
+        <v>37.52621177408606</v>
       </c>
       <c r="O7" t="n">
-        <v>282.1037417490206</v>
+        <v>74.49079536231189</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_9</t>
+          <t>model_1_12_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9984595683795856</v>
+        <v>0.946515793439592</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8215445046548457</v>
+        <v>0.7169719573804736</v>
       </c>
       <c r="D8" t="n">
-        <v>0.79959070229198</v>
+        <v>0.7765703733954051</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9870639979493625</v>
+        <v>0.9348733460714096</v>
       </c>
       <c r="F8" t="n">
-        <v>0.006412087744620412</v>
+        <v>0.1716996631604878</v>
       </c>
       <c r="G8" t="n">
-        <v>1.193332719085046</v>
+        <v>1.892609824221077</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7168524375028398</v>
+        <v>0.7991948191705263</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02296392361314012</v>
+        <v>0.2566458635554361</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1705522146109595</v>
+        <v>1.204365117543746</v>
       </c>
       <c r="K8" t="n">
-        <v>0.08007551276526684</v>
+        <v>0.4143665806511039</v>
       </c>
       <c r="L8" t="n">
-        <v>1.098587623706521</v>
+        <v>0.9271704421305083</v>
       </c>
       <c r="M8" t="n">
-        <v>0.08133662204517392</v>
+        <v>0.420892440081743</v>
       </c>
       <c r="N8" t="n">
-        <v>140.0991407197797</v>
+        <v>37.52401694574323</v>
       </c>
       <c r="O8" t="n">
-        <v>281.4343132629961</v>
+        <v>74.48860053396905</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_2</t>
+          <t>model_1_12_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9990749329885067</v>
+        <v>0.9464543283192908</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8207812505661866</v>
+        <v>0.7167840005379831</v>
       </c>
       <c r="D9" t="n">
-        <v>0.805464141546025</v>
+        <v>0.7766970757480862</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9966976540771122</v>
+        <v>0.9342781189907257</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003850616131700294</v>
+        <v>0.1718969838487906</v>
       </c>
       <c r="G9" t="n">
-        <v>1.198436602690372</v>
+        <v>1.893866692492273</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6958434858526967</v>
+        <v>0.7987416122016109</v>
       </c>
       <c r="I9" t="n">
-        <v>0.005862307320338037</v>
+        <v>0.2589914864136473</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1484412015658247</v>
+        <v>1.210346102619976</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06205333296206009</v>
+        <v>0.4146046114659008</v>
       </c>
       <c r="L9" t="n">
-        <v>1.059204288735572</v>
+        <v>0.9270867449454172</v>
       </c>
       <c r="M9" t="n">
-        <v>0.06303061092563703</v>
+        <v>0.4211342196439294</v>
       </c>
       <c r="N9" t="n">
-        <v>141.1190442185574</v>
+        <v>37.52171982542251</v>
       </c>
       <c r="O9" t="n">
-        <v>282.4542167617738</v>
+        <v>74.48630341364833</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_1</t>
+          <t>model_1_12_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9990815329200009</v>
+        <v>0.946390127298161</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8206958263162649</v>
+        <v>0.7165969445262417</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8057098501136353</v>
+        <v>0.7768218115978444</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9972059450112275</v>
+        <v>0.9336772149662664</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003823143740658245</v>
+        <v>0.1721030875644753</v>
       </c>
       <c r="G10" t="n">
-        <v>1.19900783504294</v>
+        <v>1.895117536904102</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6949646005533558</v>
+        <v>0.798295439299626</v>
       </c>
       <c r="I10" t="n">
-        <v>0.004959991895635397</v>
+        <v>0.2613594805138875</v>
       </c>
       <c r="J10" t="n">
-        <v>0.142942817028363</v>
+        <v>1.216304000001321</v>
       </c>
       <c r="K10" t="n">
-        <v>0.06183157559579284</v>
+        <v>0.4148530915450376</v>
       </c>
       <c r="L10" t="n">
-        <v>1.058781893119942</v>
+        <v>0.9269993222783468</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0628053611025271</v>
+        <v>0.4213866130359236</v>
       </c>
       <c r="N10" t="n">
-        <v>141.1333644521161</v>
+        <v>37.51932327079972</v>
       </c>
       <c r="O10" t="n">
-        <v>282.4685369953325</v>
+        <v>74.48390685902554</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_0</t>
+          <t>model_1_12_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.999110069839807</v>
+        <v>0.9463231987097707</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8200880978363293</v>
+        <v>0.7164107828900108</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8065079218453906</v>
+        <v>0.7769445777313896</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9985951118133952</v>
+        <v>0.9330706051601316</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003704358050119785</v>
+        <v>0.1723179475543949</v>
       </c>
       <c r="G11" t="n">
-        <v>1.203071718186602</v>
+        <v>1.896362400622773</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6921099442437251</v>
+        <v>0.7978563119583242</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002493950207792852</v>
+        <v>0.2637499594982273</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1264678406979356</v>
+        <v>1.222236259927068</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06086343771197766</v>
+        <v>0.4151119699001644</v>
       </c>
       <c r="L11" t="n">
-        <v>1.056955530252353</v>
+        <v>0.9269081854771345</v>
       </c>
       <c r="M11" t="n">
-        <v>0.06182197601482466</v>
+        <v>0.4216495684663603</v>
       </c>
       <c r="N11" t="n">
-        <v>141.1964906021419</v>
+        <v>37.5168279526178</v>
       </c>
       <c r="O11" t="n">
-        <v>282.5316631453583</v>
+        <v>74.48141154084362</v>
       </c>
     </row>
   </sheetData>
